--- a/ExplorerFund/operation/strategy_update/zce/day/zce_day_config.xlsx
+++ b/ExplorerFund/operation/strategy_update/zce/day/zce_day_config.xlsx
@@ -616,7 +616,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -725,7 +725,7 @@
         <v>33</v>
       </c>
       <c r="E4" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>15</v>
@@ -952,7 +952,7 @@
         <v>33</v>
       </c>
       <c r="E13" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>15</v>
@@ -1029,7 +1029,7 @@
         <v>40</v>
       </c>
       <c r="E16" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>15</v>
@@ -1106,7 +1106,7 @@
         <v>40</v>
       </c>
       <c r="E19" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>15</v>
@@ -1158,7 +1158,7 @@
         <v>40</v>
       </c>
       <c r="E21" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>15</v>

--- a/ExplorerFund/operation/strategy_update/zce/day/zce_day_config.xlsx
+++ b/ExplorerFund/operation/strategy_update/zce/day/zce_day_config.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="49">
   <si>
     <t>策略</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,6 +208,10 @@
   </si>
   <si>
     <t>更新手数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,10 +617,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A23" sqref="A23:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1171,6 +1175,11 @@
         <v>47</v>
       </c>
     </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="F1:F21">
     <filterColumn colId="0">

--- a/ExplorerFund/operation/strategy_update/zce/day/zce_day_config.xlsx
+++ b/ExplorerFund/operation/strategy_update/zce/day/zce_day_config.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="48">
   <si>
     <t>策略</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,10 +208,6 @@
   </si>
   <si>
     <t>更新手数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -617,10 +613,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:I23"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1175,11 +1171,6 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="F1:F21">
     <filterColumn colId="0">
